--- a/dist/document/dest/2020/10/products/Bonzacim.xlsx
+++ b/dist/document/dest/2020/10/products/Bonzacim.xlsx
@@ -421,11 +421,17 @@
       <c r="A2" t="str">
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
+      <c r="B2" t="str">
+        <v>Lê Thị Thuý</v>
+      </c>
+      <c r="C2" t="str">
+        <v>An</v>
+      </c>
       <c r="D2" t="str">
         <v>Bonzacim (Rosuvastatin 10mg)</v>
       </c>
       <c r="E2" s="1">
-        <v>30</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3">
@@ -433,7 +439,7 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B3" t="str">
-        <v>Lê Thị Thuý</v>
+        <v>Nguyễn</v>
       </c>
       <c r="C3" t="str">
         <v>An</v>
@@ -442,7 +448,7 @@
         <v>Bonzacim (Rosuvastatin 10mg)</v>
       </c>
       <c r="E3" s="1">
-        <v>128</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -450,16 +456,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B4" t="str">
-        <v>Nguyễn</v>
+        <v>Nguyễn Thị Hồng</v>
       </c>
       <c r="C4" t="str">
-        <v>An</v>
+        <v>Anh</v>
       </c>
       <c r="D4" t="str">
         <v>Bonzacim (Rosuvastatin 10mg)</v>
       </c>
       <c r="E4" s="1">
-        <v>15</v>
+        <v>502</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +473,7 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B5" t="str">
-        <v>Nguyễn Thị Hồng</v>
+        <v>Phạm Thế</v>
       </c>
       <c r="C5" t="str">
         <v>Anh</v>
@@ -476,7 +482,7 @@
         <v>Bonzacim (Rosuvastatin 10mg)</v>
       </c>
       <c r="E5" s="1">
-        <v>502</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -484,16 +490,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B6" t="str">
-        <v>Phạm Thế</v>
+        <v>Lương Thanh</v>
       </c>
       <c r="C6" t="str">
-        <v>Anh</v>
+        <v>Bửu</v>
       </c>
       <c r="D6" t="str">
         <v>Bonzacim (Rosuvastatin 10mg)</v>
       </c>
       <c r="E6" s="1">
-        <v>30</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7">
@@ -501,16 +507,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B7" t="str">
-        <v>Lương Thanh</v>
+        <v>Phạm Công</v>
       </c>
       <c r="C7" t="str">
-        <v>Bửu</v>
+        <v>Chánh</v>
       </c>
       <c r="D7" t="str">
         <v>Bonzacim (Rosuvastatin 10mg)</v>
       </c>
       <c r="E7" s="1">
-        <v>160</v>
+        <v>405</v>
       </c>
     </row>
     <row r="8">
@@ -518,16 +524,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B8" t="str">
-        <v>Phạm Công</v>
+        <v>Phan Nguyên Thiên</v>
       </c>
       <c r="C8" t="str">
-        <v>Chánh</v>
+        <v>Châu</v>
       </c>
       <c r="D8" t="str">
         <v>Bonzacim (Rosuvastatin 10mg)</v>
       </c>
       <c r="E8" s="1">
-        <v>405</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9">
@@ -535,16 +541,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B9" t="str">
-        <v>Phan Nguyên Thiên</v>
+        <v>Nguyễn Thành</v>
       </c>
       <c r="C9" t="str">
-        <v>Châu</v>
+        <v>Đăng</v>
       </c>
       <c r="D9" t="str">
         <v>Bonzacim (Rosuvastatin 10mg)</v>
       </c>
       <c r="E9" s="1">
-        <v>210</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
@@ -552,10 +558,10 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B10" t="str">
-        <v>Nguyễn Thành</v>
+        <v>Trần Thị</v>
       </c>
       <c r="C10" t="str">
-        <v>Đăng</v>
+        <v>Diễm</v>
       </c>
       <c r="D10" t="str">
         <v>Bonzacim (Rosuvastatin 10mg)</v>
@@ -569,16 +575,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B11" t="str">
-        <v>Trần Thị</v>
+        <v>Ngô Minh</v>
       </c>
       <c r="C11" t="str">
-        <v>Diễm</v>
+        <v>Đức</v>
       </c>
       <c r="D11" t="str">
         <v>Bonzacim (Rosuvastatin 10mg)</v>
       </c>
       <c r="E11" s="1">
-        <v>60</v>
+        <v>980</v>
       </c>
     </row>
     <row r="12">
@@ -586,16 +592,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B12" t="str">
-        <v>Ngô Minh</v>
+        <v>Ngô Thị Lệ</v>
       </c>
       <c r="C12" t="str">
-        <v>Đức</v>
+        <v>Dung</v>
       </c>
       <c r="D12" t="str">
         <v>Bonzacim (Rosuvastatin 10mg)</v>
       </c>
       <c r="E12" s="1">
-        <v>980</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13">
@@ -603,16 +609,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B13" t="str">
-        <v>Ngô Thị Lệ</v>
+        <v>Nguyễn Tấn</v>
       </c>
       <c r="C13" t="str">
-        <v>Dung</v>
+        <v>Dũng</v>
       </c>
       <c r="D13" t="str">
         <v>Bonzacim (Rosuvastatin 10mg)</v>
       </c>
       <c r="E13" s="1">
-        <v>180</v>
+        <v>985</v>
       </c>
     </row>
     <row r="14">
@@ -620,16 +626,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B14" t="str">
-        <v>Nguyễn Tấn</v>
+        <v>Trần Minh</v>
       </c>
       <c r="C14" t="str">
-        <v>Dũng</v>
+        <v>Đúng</v>
       </c>
       <c r="D14" t="str">
         <v>Bonzacim (Rosuvastatin 10mg)</v>
       </c>
       <c r="E14" s="1">
-        <v>985</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15">
@@ -637,16 +643,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B15" t="str">
-        <v>Trần Minh</v>
+        <v>Phan Hữu Bội</v>
       </c>
       <c r="C15" t="str">
-        <v>Đúng</v>
+        <v>Hoàn</v>
       </c>
       <c r="D15" t="str">
         <v>Bonzacim (Rosuvastatin 10mg)</v>
       </c>
       <c r="E15" s="1">
-        <v>30</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="16">
@@ -654,16 +660,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B16" t="str">
-        <v>Phan Hữu Bội</v>
+        <v>Nguyễn Thị Ánh</v>
       </c>
       <c r="C16" t="str">
-        <v>Hoàn</v>
+        <v>Hồng</v>
       </c>
       <c r="D16" t="str">
         <v>Bonzacim (Rosuvastatin 10mg)</v>
       </c>
       <c r="E16" s="1">
-        <v>1950</v>
+        <v>585</v>
       </c>
     </row>
     <row r="17">
@@ -671,16 +677,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B17" t="str">
-        <v>Nguyễn Thị Ánh</v>
+        <v>Bùi Bỉnh</v>
       </c>
       <c r="C17" t="str">
-        <v>Hồng</v>
+        <v>Huân</v>
       </c>
       <c r="D17" t="str">
         <v>Bonzacim (Rosuvastatin 10mg)</v>
       </c>
       <c r="E17" s="1">
-        <v>585</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="18">
@@ -688,16 +694,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B18" t="str">
-        <v>Bùi Bỉnh</v>
+        <v>Nguyễn văn</v>
       </c>
       <c r="C18" t="str">
-        <v>Huân</v>
+        <v>Hưng</v>
       </c>
       <c r="D18" t="str">
         <v>Bonzacim (Rosuvastatin 10mg)</v>
       </c>
       <c r="E18" s="1">
-        <v>1538</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19">
@@ -705,16 +711,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B19" t="str">
-        <v>Nguyễn văn</v>
+        <v>Vũ Thị Thanh</v>
       </c>
       <c r="C19" t="str">
-        <v>Hưng</v>
+        <v>Huyền</v>
       </c>
       <c r="D19" t="str">
         <v>Bonzacim (Rosuvastatin 10mg)</v>
       </c>
       <c r="E19" s="1">
-        <v>41</v>
+        <v>370</v>
       </c>
     </row>
     <row r="20">
@@ -722,16 +728,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B20" t="str">
-        <v>Vũ Thị Thanh</v>
+        <v>Nguyễn Ngọc</v>
       </c>
       <c r="C20" t="str">
-        <v>Huyền</v>
+        <v>Khôi</v>
       </c>
       <c r="D20" t="str">
         <v>Bonzacim (Rosuvastatin 10mg)</v>
       </c>
       <c r="E20" s="1">
-        <v>370</v>
+        <v>645</v>
       </c>
     </row>
     <row r="21">
@@ -739,16 +745,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B21" t="str">
-        <v>Nguyễn Ngọc</v>
+        <v>Phùng Trọng</v>
       </c>
       <c r="C21" t="str">
-        <v>Khôi</v>
+        <v>Kiên</v>
       </c>
       <c r="D21" t="str">
         <v>Bonzacim (Rosuvastatin 10mg)</v>
       </c>
       <c r="E21" s="1">
-        <v>645</v>
+        <v>570</v>
       </c>
     </row>
     <row r="22">
@@ -756,16 +762,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B22" t="str">
-        <v>Phùng Trọng</v>
+        <v>Mai Quang Vĩnh</v>
       </c>
       <c r="C22" t="str">
-        <v>Kiên</v>
+        <v>Long</v>
       </c>
       <c r="D22" t="str">
         <v>Bonzacim (Rosuvastatin 10mg)</v>
       </c>
       <c r="E22" s="1">
-        <v>570</v>
+        <v>766</v>
       </c>
     </row>
     <row r="23">
@@ -773,16 +779,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B23" t="str">
-        <v>Mai Quang Vĩnh</v>
+        <v>Huỳnh Trác</v>
       </c>
       <c r="C23" t="str">
-        <v>Long</v>
+        <v>Luân</v>
       </c>
       <c r="D23" t="str">
         <v>Bonzacim (Rosuvastatin 10mg)</v>
       </c>
       <c r="E23" s="1">
-        <v>766</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="24">
@@ -790,16 +796,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B24" t="str">
-        <v>Huỳnh Trác</v>
+        <v>Nguyễn Thuý</v>
       </c>
       <c r="C24" t="str">
-        <v>Luân</v>
+        <v>Nga</v>
       </c>
       <c r="D24" t="str">
         <v>Bonzacim (Rosuvastatin 10mg)</v>
       </c>
       <c r="E24" s="1">
-        <v>1390</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
@@ -807,16 +813,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B25" t="str">
-        <v>Nguyễn Thuý</v>
+        <v>Võ Nguyễn Thành</v>
       </c>
       <c r="C25" t="str">
-        <v>Nga</v>
+        <v>Nhân</v>
       </c>
       <c r="D25" t="str">
         <v>Bonzacim (Rosuvastatin 10mg)</v>
       </c>
       <c r="E25" s="1">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26">
@@ -824,16 +830,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B26" t="str">
-        <v>Võ Nguyễn Thành</v>
+        <v>Trương Tuấn</v>
       </c>
       <c r="C26" t="str">
-        <v>Nhân</v>
+        <v>Nhựt</v>
       </c>
       <c r="D26" t="str">
         <v>Bonzacim (Rosuvastatin 10mg)</v>
       </c>
       <c r="E26" s="1">
-        <v>90</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27">
@@ -841,16 +847,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B27" t="str">
-        <v>Trương Tuấn</v>
+        <v>Nguyễn Đăng</v>
       </c>
       <c r="C27" t="str">
-        <v>Nhựt</v>
+        <v>Sảng</v>
       </c>
       <c r="D27" t="str">
         <v>Bonzacim (Rosuvastatin 10mg)</v>
       </c>
       <c r="E27" s="1">
-        <v>42</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28">
@@ -858,16 +864,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B28" t="str">
-        <v>Nguyễn Đăng</v>
+        <v>Dương Phi</v>
       </c>
       <c r="C28" t="str">
-        <v>Sảng</v>
+        <v>Sơn</v>
       </c>
       <c r="D28" t="str">
         <v>Bonzacim (Rosuvastatin 10mg)</v>
       </c>
       <c r="E28" s="1">
-        <v>170</v>
+        <v>337</v>
       </c>
     </row>
     <row r="29">
@@ -875,16 +881,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B29" t="str">
-        <v>Dương Phi</v>
+        <v>Nguyễn Kim</v>
       </c>
       <c r="C29" t="str">
-        <v>Sơn</v>
+        <v>Thái</v>
       </c>
       <c r="D29" t="str">
         <v>Bonzacim (Rosuvastatin 10mg)</v>
       </c>
       <c r="E29" s="1">
-        <v>337</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30">
@@ -892,16 +898,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B30" t="str">
-        <v>Nguyễn Kim</v>
+        <v>Đặng Bữu</v>
       </c>
       <c r="C30" t="str">
-        <v>Thái</v>
+        <v>Thất</v>
       </c>
       <c r="D30" t="str">
         <v>Bonzacim (Rosuvastatin 10mg)</v>
       </c>
       <c r="E30" s="1">
-        <v>120</v>
+        <v>615</v>
       </c>
     </row>
     <row r="31">
@@ -909,16 +915,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B31" t="str">
-        <v>Đặng Bữu</v>
+        <v>Võ Trọng</v>
       </c>
       <c r="C31" t="str">
-        <v>Thất</v>
+        <v>Thịnh</v>
       </c>
       <c r="D31" t="str">
         <v>Bonzacim (Rosuvastatin 10mg)</v>
       </c>
       <c r="E31" s="1">
-        <v>615</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="32">
@@ -926,16 +932,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B32" t="str">
-        <v>Võ Trọng</v>
+        <v>Trương Hoàng Anh</v>
       </c>
       <c r="C32" t="str">
-        <v>Thịnh</v>
+        <v>Thư</v>
       </c>
       <c r="D32" t="str">
         <v>Bonzacim (Rosuvastatin 10mg)</v>
       </c>
       <c r="E32" s="1">
-        <v>1713</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="33">
@@ -943,16 +949,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B33" t="str">
-        <v>Trương Hoàng Anh</v>
+        <v>Phạm Thị Thu</v>
       </c>
       <c r="C33" t="str">
-        <v>Thư</v>
+        <v>Thuỷ</v>
       </c>
       <c r="D33" t="str">
         <v>Bonzacim (Rosuvastatin 10mg)</v>
       </c>
       <c r="E33" s="1">
-        <v>1238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="34">
@@ -960,16 +966,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B34" t="str">
-        <v>Phạm Thị Thu</v>
+        <v>Huỳnh Thắng</v>
       </c>
       <c r="C34" t="str">
-        <v>Thuỷ</v>
+        <v>Toàn</v>
       </c>
       <c r="D34" t="str">
         <v>Bonzacim (Rosuvastatin 10mg)</v>
       </c>
       <c r="E34" s="1">
-        <v>240</v>
+        <v>345</v>
       </c>
     </row>
     <row r="35">
@@ -977,16 +983,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B35" t="str">
-        <v>Huỳnh Thắng</v>
+        <v>Phạm Huỳnh Bảo</v>
       </c>
       <c r="C35" t="str">
-        <v>Toàn</v>
+        <v>Trân</v>
       </c>
       <c r="D35" t="str">
         <v>Bonzacim (Rosuvastatin 10mg)</v>
       </c>
       <c r="E35" s="1">
-        <v>345</v>
+        <v>300</v>
       </c>
     </row>
     <row r="36">
@@ -994,16 +1000,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B36" t="str">
-        <v>Phạm Huỳnh Bảo</v>
+        <v>Lê Hữu Quỳnh</v>
       </c>
       <c r="C36" t="str">
-        <v>Trân</v>
+        <v>Trang</v>
       </c>
       <c r="D36" t="str">
         <v>Bonzacim (Rosuvastatin 10mg)</v>
       </c>
       <c r="E36" s="1">
-        <v>300</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37">
@@ -1011,7 +1017,7 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B37" t="str">
-        <v>Lê Hữu Quỳnh</v>
+        <v>Vũ Bích Đoan</v>
       </c>
       <c r="C37" t="str">
         <v>Trang</v>
@@ -1020,7 +1026,7 @@
         <v>Bonzacim (Rosuvastatin 10mg)</v>
       </c>
       <c r="E37" s="1">
-        <v>45</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38">
@@ -1028,16 +1034,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B38" t="str">
-        <v>Vũ Bích Đoan</v>
+        <v>Nguyễn Xuân</v>
       </c>
       <c r="C38" t="str">
-        <v>Trang</v>
+        <v>Trình</v>
       </c>
       <c r="D38" t="str">
         <v>Bonzacim (Rosuvastatin 10mg)</v>
       </c>
       <c r="E38" s="1">
-        <v>168</v>
+        <v>450</v>
       </c>
     </row>
     <row r="39">
@@ -1045,16 +1051,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B39" t="str">
-        <v>Nguyễn Xuân</v>
+        <v>Nguyễn Tuyết</v>
       </c>
       <c r="C39" t="str">
-        <v>Trình</v>
+        <v>Vân</v>
       </c>
       <c r="D39" t="str">
         <v>Bonzacim (Rosuvastatin 10mg)</v>
       </c>
       <c r="E39" s="1">
-        <v>450</v>
+        <v>625</v>
       </c>
     </row>
     <row r="40">
@@ -1062,33 +1068,27 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B40" t="str">
-        <v>Nguyễn Tuyết</v>
+        <v>Bùi Quang</v>
       </c>
       <c r="C40" t="str">
-        <v>Vân</v>
+        <v>Vinh</v>
       </c>
       <c r="D40" t="str">
         <v>Bonzacim (Rosuvastatin 10mg)</v>
       </c>
       <c r="E40" s="1">
-        <v>625</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
-      <c r="B41" t="str">
-        <v>Bùi Quang</v>
-      </c>
-      <c r="C41" t="str">
-        <v>Vinh</v>
-      </c>
       <c r="D41" t="str">
         <v>Bonzacim (Rosuvastatin 10mg)</v>
       </c>
       <c r="E41" s="1">
-        <v>135</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42">

--- a/dist/document/dest/2020/10/products/Bonzacim.xlsx
+++ b/dist/document/dest/2020/10/products/Bonzacim.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="58">
   <si>
     <t>Công ty TNHH Dược Phẩm Hoàng Trân</t>
   </si>
@@ -19,7 +19,7 @@
     <t>BÁO CÁO TÌNH HÌNH MUA BÁN THUỐC BONZACIM</t>
   </si>
   <si>
-    <t>01/09 -&gt; 30/09/2020</t>
+    <t>27/10/2020</t>
   </si>
   <si>
     <t>STT</t>
@@ -37,13 +37,7 @@
     <t>SL</t>
   </si>
   <si>
-    <t>Lê Thị Thuý</t>
-  </si>
-  <si>
-    <t>An</t>
-  </si>
-  <si>
-    <t>Nguyễn</t>
+    <t>28/10/2020</t>
   </si>
   <si>
     <t>Nguyễn Thị Hồng</t>
@@ -52,49 +46,19 @@
     <t>Anh</t>
   </si>
   <si>
-    <t>Phạm Thế</t>
-  </si>
-  <si>
     <t>Lương Thanh</t>
   </si>
   <si>
     <t>Bửu</t>
   </si>
   <si>
-    <t>Phạm Công</t>
-  </si>
-  <si>
-    <t>Chánh</t>
-  </si>
-  <si>
-    <t>Phan Nguyên Thiên</t>
-  </si>
-  <si>
-    <t>Châu</t>
-  </si>
-  <si>
-    <t>Nguyễn Thành</t>
-  </si>
-  <si>
-    <t>Đăng</t>
-  </si>
-  <si>
-    <t>Trần Thị</t>
-  </si>
-  <si>
-    <t>Diễm</t>
-  </si>
-  <si>
     <t>Ngô Minh</t>
   </si>
   <si>
     <t>Đức</t>
   </si>
   <si>
-    <t>Ngô Thị Lệ</t>
-  </si>
-  <si>
-    <t>Dung</t>
+    <t>26/10/2020</t>
   </si>
   <si>
     <t>Nguyễn Tấn</t>
@@ -103,42 +67,12 @@
     <t>Dũng</t>
   </si>
   <si>
-    <t>Trần Minh</t>
-  </si>
-  <si>
-    <t>Đúng</t>
-  </si>
-  <si>
     <t>Phan Hữu Bội</t>
   </si>
   <si>
     <t>Hoàn</t>
   </si>
   <si>
-    <t>Nguyễn Thị Ánh</t>
-  </si>
-  <si>
-    <t>Hồng</t>
-  </si>
-  <si>
-    <t>Bùi Bỉnh</t>
-  </si>
-  <si>
-    <t>Huân</t>
-  </si>
-  <si>
-    <t>Nguyễn văn</t>
-  </si>
-  <si>
-    <t>Hưng</t>
-  </si>
-  <si>
-    <t>Vũ Thị Thanh</t>
-  </si>
-  <si>
-    <t>Huyền</t>
-  </si>
-  <si>
     <t>Nguyễn Ngọc</t>
   </si>
   <si>
@@ -151,6 +85,12 @@
     <t>Kiên</t>
   </si>
   <si>
+    <t>Lý Thanh</t>
+  </si>
+  <si>
+    <t>Lãm</t>
+  </si>
+  <si>
     <t>Mai Quang Vĩnh</t>
   </si>
   <si>
@@ -163,22 +103,10 @@
     <t>Luân</t>
   </si>
   <si>
-    <t>Nguyễn Thuý</t>
-  </si>
-  <si>
-    <t>Nga</t>
-  </si>
-  <si>
-    <t>Võ Nguyễn Thành</t>
-  </si>
-  <si>
-    <t>Nhân</t>
-  </si>
-  <si>
-    <t>Trương Tuấn</t>
-  </si>
-  <si>
-    <t>Nhựt</t>
+    <t>Lý Văn</t>
+  </si>
+  <si>
+    <t>Phái</t>
   </si>
   <si>
     <t>Nguyễn Đăng</t>
@@ -229,21 +157,12 @@
     <t>Toàn</t>
   </si>
   <si>
-    <t>Phạm Huỳnh Bảo</t>
-  </si>
-  <si>
-    <t>Trân</t>
-  </si>
-  <si>
     <t>Lê Hữu Quỳnh</t>
   </si>
   <si>
     <t>Trang</t>
   </si>
   <si>
-    <t>Vũ Bích Đoan</t>
-  </si>
-  <si>
     <t>Nguyễn Xuân</t>
   </si>
   <si>
@@ -254,12 +173,6 @@
   </si>
   <si>
     <t>Vân</t>
-  </si>
-  <si>
-    <t>Bùi Quang</t>
-  </si>
-  <si>
-    <t>Vinh</t>
   </si>
   <si>
     <t>Nguyễn Tuấn</t>
@@ -714,7 +627,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E47"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
@@ -774,12 +687,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
+        <v>8</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="E6" s="10">
-        <v>30</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -787,16 +704,16 @@
         <v>2</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E7" s="10">
-        <v>128</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -804,16 +721,16 @@
         <v>3</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E8" s="10">
-        <v>15</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -821,16 +738,16 @@
         <v>4</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E9" s="10">
-        <v>502</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -841,13 +758,13 @@
         <v>2</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E10" s="10">
-        <v>30</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -858,13 +775,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E11" s="10">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -872,16 +789,16 @@
         <v>7</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E12" s="10">
-        <v>405</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -889,7 +806,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>18</v>
@@ -898,7 +815,7 @@
         <v>19</v>
       </c>
       <c r="E13" s="10">
-        <v>210</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -906,7 +823,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>20</v>
@@ -915,7 +832,7 @@
         <v>21</v>
       </c>
       <c r="E14" s="10">
-        <v>60</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -923,16 +840,16 @@
         <v>10</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15" s="10">
-        <v>60</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -943,13 +860,13 @@
         <v>2</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E16" s="10">
-        <v>980</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -957,16 +874,16 @@
         <v>12</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E17" s="10">
-        <v>180</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -974,16 +891,16 @@
         <v>13</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E18" s="10">
-        <v>985</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -994,13 +911,13 @@
         <v>2</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E19" s="10">
-        <v>30</v>
+        <v>375</v>
       </c>
     </row>
     <row r="20" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1008,16 +925,16 @@
         <v>15</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E20" s="10">
-        <v>1950</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1025,16 +942,16 @@
         <v>16</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E21" s="10">
-        <v>585</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="22" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1045,13 +962,13 @@
         <v>2</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E22" s="10">
-        <v>1538</v>
+        <v>960</v>
       </c>
     </row>
     <row r="23" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1059,16 +976,16 @@
         <v>18</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E23" s="10">
-        <v>41</v>
+        <v>540</v>
       </c>
     </row>
     <row r="24" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1079,13 +996,13 @@
         <v>2</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E24" s="10">
-        <v>370</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1093,16 +1010,16 @@
         <v>20</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E25" s="10">
-        <v>645</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1113,13 +1030,13 @@
         <v>2</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E26" s="10">
-        <v>570</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1127,16 +1044,16 @@
         <v>22</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E27" s="10">
-        <v>766</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1144,16 +1061,16 @@
         <v>23</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E28" s="10">
-        <v>1390</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1161,13 +1078,13 @@
         <v>24</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="E29" s="10">
         <v>30</v>
@@ -1178,16 +1095,16 @@
         <v>25</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="E30" s="10">
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1198,13 +1115,13 @@
         <v>2</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E31" s="10">
-        <v>42</v>
+        <v>515</v>
       </c>
     </row>
     <row r="32" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1212,16 +1129,16 @@
         <v>27</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E32" s="10">
-        <v>170</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1232,13 +1149,13 @@
         <v>2</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E33" s="10">
-        <v>337</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1246,16 +1163,16 @@
         <v>29</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="E34" s="10">
-        <v>120</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1266,13 +1183,13 @@
         <v>2</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E35" s="10">
-        <v>615</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1280,16 +1197,16 @@
         <v>31</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="E36" s="10">
-        <v>1713</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1297,16 +1214,16 @@
         <v>32</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="E37" s="10">
-        <v>1238</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1317,13 +1234,13 @@
         <v>2</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="E38" s="10">
-        <v>240</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1334,13 +1251,13 @@
         <v>2</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="E39" s="10">
-        <v>345</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1351,13 +1268,13 @@
         <v>2</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="E40" s="10">
-        <v>300</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1365,16 +1282,16 @@
         <v>36</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="E41" s="10">
-        <v>45</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1382,16 +1299,16 @@
         <v>37</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="E42" s="10">
-        <v>168</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1402,13 +1319,13 @@
         <v>2</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="E43" s="10">
-        <v>450</v>
+        <v>429</v>
       </c>
     </row>
     <row r="44" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1419,74 +1336,40 @@
         <v>2</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="E44" s="10">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="45" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="9">
-        <v>40</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="E45" s="10">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="46" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="9">
-        <v>41</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E46" s="10">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="47" ht="20" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="11">
-        <v>19703</v>
-      </c>
-    </row>
-    <row r="48" ht="16" customHeight="1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="4"/>
+        <v>277</v>
+      </c>
+    </row>
+    <row r="45" ht="20" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="11">
+        <v>7810</v>
+      </c>
+    </row>
+    <row r="46" ht="16" customHeight="1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A45:D45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
